--- a/resource_api/musteriler/sablonlar/musteriDetayListesi.xlsx
+++ b/resource_api/musteriler/sablonlar/musteriDetayListesi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\Doktor-Web\doktor-servis\resource_api\musteriler\sablonlar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdi\new-vite-servis\resource_api\musteriler\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED8A95E-3404-4C92-AD37-92CCC9E8F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE68FEE-C52D-4935-BF6D-F90ACD3A7FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Özel</t>
+  </si>
+  <si>
+    <t>Satışçı</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +410,7 @@
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,9 +436,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
